--- a/Paises.xlsx
+++ b/Paises.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22918"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN DIEGO\Dropbox\Taller Coronavirus\03. Wenliang\Otros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN DIEGO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A72EE2-8CC9-417B-827F-63B2825CA220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF1F963-9ED9-4CF2-92DA-6AD454C32459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -487,7 +487,7 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
@@ -497,7 +497,7 @@
     <col min="7" max="7" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -546,7 +546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -584,7 +584,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -602,7 +602,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -622,7 +622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -640,7 +640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -658,7 +658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -675,7 +675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -692,7 +692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -707,7 +707,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -721,7 +721,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -738,7 +738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>

--- a/Paises.xlsx
+++ b/Paises.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN DIEGO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN DIEGO\Dropbox\Taller Coronavirus\03. Wenliang\Otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF1F963-9ED9-4CF2-92DA-6AD454C32459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2412E40C-AAC1-4A6B-880A-EA5B66E5A825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Country</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>0 o 1</t>
-  </si>
-  <si>
     <t>https://www.uni-mannheim.de/en/gip/corona-study/#c187027</t>
   </si>
   <si>
@@ -93,6 +90,15 @@
   </si>
   <si>
     <t>https://www.ipsos.com/en-us/news-and-polls/more-people-say-theyre-wearing-masks-protect-themselves-covid-19-march</t>
+  </si>
+  <si>
+    <t>sweden</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>https://www.google.com/covid19/mobility/</t>
   </si>
 </sst>
 </file>
@@ -153,10 +159,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -481,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0865C41F-F8C1-F743-9CC7-E8990FCDD1B0}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -524,27 +531,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43892</v>
-      </c>
-      <c r="E2" s="1">
-        <v>43913</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -562,8 +550,8 @@
       <c r="E3" s="1">
         <v>43917</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -582,7 +570,7 @@
       <c r="E4" s="1">
         <v>43931</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -600,11 +588,11 @@
       <c r="E5" s="1">
         <v>43944</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0.33</v>
@@ -619,30 +607,30 @@
         <v>43918</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="D8" s="1">
-        <v>43940</v>
+        <v>43909</v>
       </c>
       <c r="E8" s="1">
         <v>43914</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="H8" s="4" t="s">
-        <v>14</v>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -653,14 +641,14 @@
       <c r="E9" s="1">
         <v>43971</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>0.2</v>
@@ -672,12 +660,12 @@
         <v>43923</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -689,12 +677,12 @@
         <v>43931</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>0.6</v>
@@ -709,7 +697,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0.5</v>
@@ -723,7 +711,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>0.42</v>
@@ -734,13 +722,13 @@
       <c r="E15" s="1">
         <v>43904</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>19</v>
+      <c r="H15" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>0.8</v>
@@ -751,7 +739,30 @@
       <c r="E16" s="1">
         <v>43933</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0.85</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43867</v>
+      </c>
+      <c r="E18" s="1">
+        <v>43960</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -767,6 +778,7 @@
     <hyperlink ref="H10" r:id="rId5" xr:uid="{A6198308-969F-4B0C-BF8E-DBC953B727E7}"/>
     <hyperlink ref="I9" r:id="rId6" xr:uid="{2A1743FB-70CE-45B7-8D12-64D68482CD7E}"/>
     <hyperlink ref="H15" r:id="rId7" xr:uid="{A5E779CD-68F7-4BD3-8271-BDDF471B4D71}"/>
+    <hyperlink ref="H18" r:id="rId8" xr:uid="{96823AE7-C6F1-40DE-9226-3C1221478081}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Paises.xlsx
+++ b/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN DIEGO\Dropbox\Taller Coronavirus\03. Wenliang\Otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2412E40C-AAC1-4A6B-880A-EA5B66E5A825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6577D8-13A6-4F23-971A-7B80B2C2D2C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
   </bookViews>
@@ -92,13 +92,13 @@
     <t>https://www.ipsos.com/en-us/news-and-polls/more-people-say-theyre-wearing-masks-protect-themselves-covid-19-march</t>
   </si>
   <si>
-    <t>sweden</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>https://www.google.com/covid19/mobility/</t>
+  </si>
+  <si>
+    <t>Sweden</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0.85</v>
@@ -758,10 +758,10 @@
         <v>43960</v>
       </c>
       <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Paises.xlsx
+++ b/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN DIEGO\Dropbox\Taller Coronavirus\03. Wenliang\Otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6577D8-13A6-4F23-971A-7B80B2C2D2C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8FBC38-61CD-46F9-BDF2-27F300592D26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
         <v>0.1</v>
       </c>
       <c r="D18" s="1">
-        <v>43867</v>
+        <v>43887</v>
       </c>
       <c r="E18" s="1">
         <v>43960</v>

--- a/Paises.xlsx
+++ b/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN DIEGO\Dropbox\Taller Coronavirus\03. Wenliang\Otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8FBC38-61CD-46F9-BDF2-27F300592D26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75A7675-3D1F-4A97-9891-39B0F916569D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
   </bookViews>
